--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_30.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1712473572938689</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(84.96, 91.38), (116.66, 121.42)]</t>
+          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(110.78, 119.34), (22.06, 32.5)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:56.160000', '0:01:00.700000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:18.780000', '0:00:23.960000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1804812834224599</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1478494623655914</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
+          <t>[['C:maj', 'G', 'C/5', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:37.738798', '0:00:43.706326')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:57.406099', '0:01:04.464965')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1004901960784314</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'E'], ['D', 'A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E'], ['D', 'A', 'E', 'A']]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(50.730362, 54.666145), (51.71721, 55.420793)]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.829138, 17.282018), (17.282018, 29.309954)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:45.200000', '0:01:52.400000'), ('0:00:19.980000', '0:00:28.900000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:43.660000', '0:01:50.880000'), ('0:02:20.480000', '0:02:25.980000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_13</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1220518867924528</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['D', 'D/2', 'D/3']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(30.02, 44.28)]</t>
+          <t>[['Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.44, 45.54)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:53.594164', '0:00:57.710900')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:38.770000', '0:00:46.940000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1217948717948718</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
+          <t>[['C:min', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
+          <t>[('0:00:11.700000', '0:00:20.020000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:07.960000', '0:00:13.120000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3819444444444445</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.425</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.58, 10.18)]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.56, 20.92)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:58.625147', '0:01:04.604285')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3818181818181818</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['B:7', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[['D:7', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:13.384180', '0:00:21.737596')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:07.102281', '0:00:22.589990')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.147562582345191</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(19.86, 23.68)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(66.93, 74.44)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1555299539170507</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G/3', 'G/#4', 'D']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(87.102483, 92.707414)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(56.324374, 59.031496)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:43', '0:02:02.840000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:32.520000', '0:00:47.400000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1052955665024631</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.36, 18.44)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.523, 10.397)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1503759398496241</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab:min', 'Ab:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C#', 'F#:min', 'F#:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(6.33, 8.88)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(60.865873, 63.512947)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(47.02, 51.38)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(81.28, 89.42)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2932330827067669</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(17.581738, 30.271443)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.88, 6.56)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(45.58, 49.6)]</t>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A', 'E'], ['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E'], ['A', 'E', 'A', 'E']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.291354, 14.073123), (10.752669, 17.463236)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(27.840748, 41.263102), (68.150589, 80.236575)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(72.08, 79.58)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(82.24, 89.66)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
